--- a/results_small/Res_Simulate_data_small_cost.xlsx
+++ b/results_small/Res_Simulate_data_small_cost.xlsx
@@ -46,8 +46,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EEAC7"/>
-        <bgColor rgb="FF8EEAC7"/>
+        <fgColor rgb="FFF4E3E7"/>
+        <bgColor rgb="FFF4E3E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B3DC"/>
+        <bgColor rgb="FFE6B3DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -58,14 +64,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCACAD7"/>
-        <bgColor rgb="FFCACAD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E3E7"/>
-        <bgColor rgb="FFF4E3E7"/>
+        <fgColor rgb="FF8EEAC7"/>
+        <bgColor rgb="FF8EEAC7"/>
       </patternFill>
     </fill>
     <fill>
@@ -76,8 +76,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6B3DC"/>
-        <bgColor rgb="FFE6B3DC"/>
+        <fgColor rgb="FFCACAD7"/>
+        <bgColor rgb="FFCACAD7"/>
       </patternFill>
     </fill>
   </fills>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366990</v>
+        <v>369379</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.458663940429688</v>
+        <v>1.019878149032593</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.663188757346791e-05</v>
       </c>
     </row>
     <row r="5">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>366990</v>
+        <v>369379</v>
       </c>
     </row>
     <row r="4">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="5">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.39</v>
+        <v>7.64</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1815</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="3">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5175</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6990</v>
+        <v>9379</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -909,7 +909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,72 +943,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Person 4</t>
+          <t>Person 2</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 8</t>
+          <t>Person 3</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 12</t>
+          <t>Person 4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 13</t>
+          <t>Person 8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 14</t>
+          <t>Person 12</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 20</t>
+          <t>Person 13</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1021,137 +1021,137 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 26</t>
+          <t>Person 14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 29</t>
+          <t>Person 19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 30</t>
+          <t>Person 20</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 32</t>
+          <t>Person 26</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 34</t>
+          <t>Person 28</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 41</t>
+          <t>Person 29</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 43</t>
+          <t>Person 30</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 54</t>
+          <t>Person 32</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 58</t>
+          <t>Person 34</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 59</t>
+          <t>Person 46</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 63</t>
+          <t>Person 55</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1164,59 +1164,59 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 64</t>
+          <t>Person 58</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 65</t>
+          <t>Person 59</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 82</t>
+          <t>Person 63</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 86</t>
+          <t>Person 64</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 90</t>
+          <t>Person 65</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1229,7 +1229,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 91</t>
+          <t>Person 70</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1242,7 +1242,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 92</t>
+          <t>Person 71</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1255,33 +1255,33 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 96</t>
+          <t>Person 82</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 97</t>
+          <t>Person 86</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 100</t>
+          <t>Person 89</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1294,39 +1294,52 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 103</t>
+          <t>Person 92</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 109</t>
+          <t>Person 99</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Person 109</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Person 118</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1341,7 +1354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1396,17 +1409,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 12</t>
+          <t>Person 13</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>SAR</t>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1429,7 @@
           <t>Person 14</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
@@ -1430,20 +1443,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 20</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
+          <t>Person 30</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="n"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>MDCA</t>
@@ -1453,7 +1466,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 29</t>
+          <t>Person 32</t>
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr">
@@ -1476,7 +1489,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 30</t>
+          <t>Person 34</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
@@ -1499,20 +1512,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 32</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="n"/>
+          <t>Person 55</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>GO</t>
@@ -1522,17 +1535,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 34</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 59</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
       <c r="H9" s="2" t="n"/>
@@ -1545,20 +1558,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 41</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+          <t>Person 63</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="n"/>
+      <c r="H10" s="7" t="n"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>SAR</t>
@@ -1568,7 +1581,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 59</t>
+          <t>Person 64</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -1576,233 +1589,253 @@
           <t>GS</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 63</t>
+          <t>Person 99</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 64</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 109</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>MDCA</t>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 96</t>
+          <t>Person 20</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 97</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 3</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 103</t>
+          <t>Person 12</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 4</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 13</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 4</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 26</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 19</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 43</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 26</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 54</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 28</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 58</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 29</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 65</t>
+          <t>Person 46</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -1824,130 +1857,130 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 82</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
+          <t>Person 58</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="F24" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 86</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 65</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 90</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
+          <t>Person 70</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 91</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F27" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 71</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 92</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
+          <t>Person 82</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F28" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 100</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="inlineStr">
+          <t>Person 86</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -1956,20 +1989,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 109</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="inlineStr">
+          <t>Person 89</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="E30" s="7" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="F30" s="7" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -1978,20 +2011,42 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Person 92</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Person 118</t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="E31" s="7" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="F31" s="7" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -2055,19 +2110,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>-0</v>
@@ -2080,19 +2135,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
         <v>-0</v>
@@ -2105,19 +2160,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2130,19 +2185,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
         <v>-0</v>
@@ -2155,19 +2210,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9951</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
@@ -2180,16 +2235,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>

--- a/results_small/Res_Simulate_data_small_cost.xlsx
+++ b/results_small/Res_Simulate_data_small_cost.xlsx
@@ -46,8 +46,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E3E7"/>
-        <bgColor rgb="FFF4E3E7"/>
+        <fgColor rgb="FFBC94E6"/>
+        <bgColor rgb="FFBC94E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -58,26 +58,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8EEAC7"/>
+        <bgColor rgb="FF8EEAC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACAD7"/>
+        <bgColor rgb="FFCACAD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF9D2D6"/>
         <bgColor rgb="FFF9D2D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EEAC7"/>
-        <bgColor rgb="FF8EEAC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBC94E6"/>
-        <bgColor rgb="FFBC94E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCACAD7"/>
-        <bgColor rgb="FFCACAD7"/>
+        <fgColor rgb="FFF4E3E7"/>
+        <bgColor rgb="FFF4E3E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -106,8 +106,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369379</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.019878149032593</v>
+        <v>14.41282796859741</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.663188757346791e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9624</v>
+        <v>14364</v>
       </c>
     </row>
     <row r="3">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3011</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="4">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6504</v>
+        <v>9744</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12348</v>
+        <v>18468</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>369379</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="4">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.64</v>
+        <v>7.43</v>
       </c>
     </row>
   </sheetData>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>360000</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1936</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="3">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9379</v>
+        <v>2628</v>
       </c>
     </row>
   </sheetData>
@@ -862,14 +862,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Standar</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,33 +943,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Person 2</t>
+          <t>Person 11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 3</t>
+          <t>Person 13</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 4</t>
+          <t>Person 16</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -982,33 +982,33 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 8</t>
+          <t>Person 22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 12</t>
+          <t>Person 24</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 13</t>
+          <t>Person 31</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1021,46 +1021,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 14</t>
+          <t>Person 45</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 19</t>
+          <t>Person 53</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 20</t>
+          <t>Person 56</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 26</t>
+          <t>Person 59</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1073,7 +1073,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 28</t>
+          <t>Person 64</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1086,7 +1086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 29</t>
+          <t>Person 65</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1099,7 +1099,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 30</t>
+          <t>Person 68</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1112,7 +1112,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 32</t>
+          <t>Person 76</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1125,7 +1125,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 34</t>
+          <t>Person 80</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1138,7 +1138,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 46</t>
+          <t>Person 81</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1151,33 +1151,33 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 55</t>
+          <t>Person 85</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 58</t>
+          <t>Person 90</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 59</t>
+          <t>Person 91</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1190,20 +1190,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 63</t>
+          <t>Person 97</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 64</t>
+          <t>Person 108</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1216,7 +1216,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 65</t>
+          <t>Person 111</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1229,7 +1229,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 70</t>
+          <t>Person 116</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1242,7 +1242,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 71</t>
+          <t>Person 119</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1255,7 +1255,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 82</t>
+          <t>Person 124</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1268,46 +1268,46 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 86</t>
+          <t>Person 126</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 89</t>
+          <t>Person 138</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 92</t>
+          <t>Person 143</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 99</t>
+          <t>Person 151</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1320,7 +1320,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Person 109</t>
+          <t>Person 154</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1333,13 +1333,39 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Person 118</t>
+          <t>Person 155</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Person 160</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Person 176</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1354,7 +1380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,66 +1418,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Person 8</t>
+          <t>Person 24</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>OTS</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>OTS</t>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 13</t>
+          <t>Person 31</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>DONS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 14</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 53</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 30</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
+          <t>Person 56</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
@@ -1466,20 +1492,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 32</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="n"/>
+          <t>Person 68</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="n"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>DONS</t>
@@ -1489,17 +1515,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 34</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 76</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
       <c r="H7" s="5" t="n"/>
@@ -1512,7 +1538,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 55</t>
+          <t>Person 80</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -1525,7 +1551,7 @@
           <t>GS</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n"/>
+      <c r="H8" s="6" t="n"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>GO</t>
@@ -1535,7 +1561,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 59</t>
+          <t>Person 90</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
@@ -1548,7 +1574,7 @@
           <t>GS</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n"/>
+      <c r="H9" s="7" t="n"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>OTS</t>
@@ -1558,7 +1584,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 63</t>
+          <t>Person 91</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
@@ -1566,12 +1592,12 @@
           <t>GS</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="n"/>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>SAR</t>
@@ -1581,7 +1607,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 64</t>
+          <t>Person 108</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -1598,32 +1624,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 99</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 126</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 109</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
+          <t>Person 138</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -1632,179 +1658,174 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 20</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>SAR</t>
+          <t>Person 143</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 3</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>OTS</t>
+          <t>Person 151</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 12</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>SAR</t>
+          <t>Person 154</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 2</t>
+          <t>Person 11</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>OTS</t>
+          <t>SAR</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>OTS</t>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 4</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 13</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 19</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 22</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 26</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="F20" s="6" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 16</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 28</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
+          <t>Person 45</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
@@ -1813,20 +1834,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 29</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
+          <t>Person 59</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>DONS</t>
         </is>
@@ -1835,17 +1856,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 46</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 64</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
@@ -1857,12 +1878,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 58</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 65</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1879,39 +1900,39 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 65</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 81</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 70</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
+          <t>Person 85</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
@@ -1923,100 +1944,100 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 71</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 97</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 82</t>
-        </is>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 111</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 86</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 116</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 89</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 119</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Person 92</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 124</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
@@ -2033,20 +2054,64 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Person 118</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
+          <t>Person 155</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Person 160</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Person 176</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -2110,19 +2175,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>-0</v>
@@ -2135,19 +2200,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>-0</v>
@@ -2160,19 +2225,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2185,19 +2250,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-0</v>
@@ -2210,19 +2275,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
@@ -2235,19 +2300,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-0</v>
